--- a/src/main/resources/template/excel/export/paidAccountsPayableDetail.xlsx
+++ b/src/main/resources/template/excel/export/paidAccountsPayableDetail.xlsx
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="K4")</t>
+          <t>jx:area(lastCell="L4")</t>
         </r>
       </text>
     </comment>
@@ -47,7 +47,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="K3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="L3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>${obj.branchName}</t>
   </si>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>历史往来账款</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>结算单号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -158,6 +154,41 @@
   </si>
   <si>
     <t>${obj.formTypeText}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付账款明细</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际付款时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>actualPayTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +240,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -224,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -253,14 +292,25 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -269,11 +319,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:O16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -666,24 +717,26 @@
     <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -700,10 +753,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
@@ -717,8 +770,11 @@
       <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -735,10 +791,10 @@
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>16</v>
@@ -752,8 +808,11 @@
       <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="L3" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -767,14 +826,15 @@
         <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/paidAccountsPayableDetail.xlsx
+++ b/src/main/resources/template/excel/export/paidAccountsPayableDetail.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21330" windowHeight="4845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21825" windowHeight="5880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -58,18 +58,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
-    <t>${obj.branchName}</t>
-  </si>
-  <si>
     <t>机构编号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>机构名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.branchCode}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -191,11 +184,22 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>${obj.branchCodeFull}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.branchNameFull}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,15 +314,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -326,80 +328,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -412,14 +351,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -701,7 +640,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H3" sqref="H3:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -721,100 +660,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="I3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>27</v>
+      <c r="L3" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -822,11 +761,11 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
+      <c r="H4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>

--- a/src/main/resources/template/excel/export/paidAccountsPayableDetail.xlsx
+++ b/src/main/resources/template/excel/export/paidAccountsPayableDetail.xlsx
@@ -150,10 +150,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>已付账款明细</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>实际付款时间</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -190,6 +186,10 @@
   </si>
   <si>
     <t>${obj.branchNameFull}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商已付账款明细</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -322,16 +322,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,7 +640,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -660,20 +660,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="A1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -710,15 +710,15 @@
         <v>8</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -735,10 +735,10 @@
       <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -748,7 +748,7 @@
         <v>16</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.15">
@@ -761,10 +761,10 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="1"/>
